--- a/inventory_with_total_value.xlsx
+++ b/inventory_with_total_value.xlsx
@@ -386,9 +386,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E2" t="n">
-        <v>4008</v>
-      </c>
       <c r="G2" s="4" t="n"/>
     </row>
     <row r="3">
@@ -406,9 +403,6 @@
           <t>BBB Company</t>
         </is>
       </c>
-      <c r="E3" t="n">
-        <v>759</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -425,9 +419,6 @@
           <t>CCC Company</t>
         </is>
       </c>
-      <c r="E4" t="n">
-        <v>7049700</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -444,9 +435,6 @@
           <t>BBB Company</t>
         </is>
       </c>
-      <c r="E5" t="n">
-        <v>941.27</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -463,9 +451,6 @@
           <t>CCC Company</t>
         </is>
       </c>
-      <c r="E6" t="n">
-        <v>29282.77</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -482,9 +467,6 @@
           <t>BBB Company</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>62100</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -501,9 +483,6 @@
           <t>CCC Company</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>43137.6</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -520,9 +499,6 @@
           <t>CCC Company</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>261072</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -539,9 +515,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E10" t="n">
-        <v>230429.34</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -558,9 +531,6 @@
           <t>BBB Company</t>
         </is>
       </c>
-      <c r="E11" t="n">
-        <v>152033.25</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -577,9 +547,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E12" t="n">
-        <v>1077.23</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -596,9 +563,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E13" t="n">
-        <v>199966.75</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -615,9 +579,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E14" t="n">
-        <v>148621</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -634,9 +595,6 @@
           <t>BBB Company</t>
         </is>
       </c>
-      <c r="E15" t="n">
-        <v>55221.66</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -653,9 +611,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E16" t="n">
-        <v>126249.3</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -672,9 +627,6 @@
           <t>BBB Company</t>
         </is>
       </c>
-      <c r="E17" t="n">
-        <v>3516.48</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -691,9 +643,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E18" t="n">
-        <v>13753.12</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -710,9 +659,6 @@
           <t>BBB Company</t>
         </is>
       </c>
-      <c r="E19" t="n">
-        <v>9412.199999999999</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -729,9 +675,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E20" t="n">
-        <v>2673</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -748,9 +691,6 @@
           <t>BBB Company</t>
         </is>
       </c>
-      <c r="E21" t="n">
-        <v>91582.8</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -767,9 +707,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E22" t="n">
-        <v>11418</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -786,9 +723,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E23" t="n">
-        <v>175067.55</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -805,9 +739,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E24" t="n">
-        <v>985.0500000000001</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -824,9 +755,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E25" t="n">
-        <v>3023.46</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -843,6 +771,9 @@
           <t>AAA Company</t>
         </is>
       </c>
+      <c r="E26" t="n">
+        <v>8050</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -859,9 +790,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E27" t="n">
-        <v>7027752.3</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -878,9 +806,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E28" t="n">
-        <v>82473</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -897,9 +822,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E29" t="n">
-        <v>125940.36</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -916,9 +838,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E30" t="n">
-        <v>34935.3</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -935,6 +854,9 @@
           <t>BBB Company</t>
         </is>
       </c>
+      <c r="E31" t="n">
+        <v>83.94</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -951,9 +873,6 @@
           <t>CCC Company</t>
         </is>
       </c>
-      <c r="E32" t="n">
-        <v>127037.7</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -970,9 +889,6 @@
           <t>CCC Company</t>
         </is>
       </c>
-      <c r="E33" t="n">
-        <v>17523</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -989,9 +905,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E34" t="n">
-        <v>83068.48000000001</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1008,9 +921,6 @@
           <t>BBB Company</t>
         </is>
       </c>
-      <c r="E35" t="n">
-        <v>555024.96</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1027,9 +937,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E36" t="n">
-        <v>6653.34</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1046,9 +953,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E37" t="n">
-        <v>4697.65</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1065,9 +969,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E38" t="n">
-        <v>1917.3</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1084,9 +985,6 @@
           <t>BBB Company</t>
         </is>
       </c>
-      <c r="E39" t="n">
-        <v>4207.5</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1103,9 +1001,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E40" t="n">
-        <v>91783.2</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1122,9 +1017,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E41" t="n">
-        <v>282711</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1141,9 +1033,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E42" t="n">
-        <v>125719.65</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1160,9 +1049,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E43" t="n">
-        <v>7705.280000000001</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1179,9 +1065,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E44" t="n">
-        <v>38521.12</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1198,9 +1081,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E45" t="n">
-        <v>434700</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1217,9 +1097,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E46" t="n">
-        <v>28799.25</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="3" t="n">
@@ -1236,9 +1113,6 @@
           <t>BBB Company</t>
         </is>
       </c>
-      <c r="E47" t="n">
-        <v>8547</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1255,9 +1129,6 @@
           <t>CCC Company</t>
         </is>
       </c>
-      <c r="E48" t="n">
-        <v>29409.15</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1274,9 +1145,6 @@
           <t>CCC Company</t>
         </is>
       </c>
-      <c r="E49" t="n">
-        <v>296303.1</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1293,9 +1161,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E50" t="n">
-        <v>3273.66</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1312,9 +1177,6 @@
           <t>BBB Company</t>
         </is>
       </c>
-      <c r="E51" t="n">
-        <v>1258614.25</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1331,9 +1193,6 @@
           <t>CCC Company</t>
         </is>
       </c>
-      <c r="E52" t="n">
-        <v>114224</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1350,9 +1209,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E53" t="n">
-        <v>162361.12</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1369,9 +1225,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E54" t="n">
-        <v>9257.219999999999</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1388,9 +1241,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E55" t="n">
-        <v>539.46</v>
-      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -1407,9 +1257,6 @@
           <t>CCC Company</t>
         </is>
       </c>
-      <c r="E56" t="n">
-        <v>4697.65</v>
-      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -1426,9 +1273,6 @@
           <t>CCC Company</t>
         </is>
       </c>
-      <c r="E57" t="n">
-        <v>1917.3</v>
-      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -1445,9 +1289,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E58" t="n">
-        <v>4207.5</v>
-      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -1464,9 +1305,6 @@
           <t>BBB Company</t>
         </is>
       </c>
-      <c r="E59" t="n">
-        <v>91783.2</v>
-      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -1483,9 +1321,6 @@
           <t>CCC Company</t>
         </is>
       </c>
-      <c r="E60" t="n">
-        <v>7722</v>
-      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -1502,9 +1337,6 @@
           <t>CCC Company</t>
         </is>
       </c>
-      <c r="E61" t="n">
-        <v>125719.65</v>
-      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -1521,9 +1353,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E62" t="n">
-        <v>7705.280000000001</v>
-      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -1540,9 +1369,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E63" t="n">
-        <v>38521.12</v>
-      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -1559,9 +1385,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E64" t="n">
-        <v>434700</v>
-      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -1578,9 +1401,6 @@
           <t>CCC Company</t>
         </is>
       </c>
-      <c r="E65" t="n">
-        <v>6617.7</v>
-      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -1597,9 +1417,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E66" t="n">
-        <v>26085</v>
-      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -1616,9 +1433,6 @@
           <t>BBB Company</t>
         </is>
       </c>
-      <c r="E67" t="n">
-        <v>26641.23</v>
-      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -1635,9 +1449,6 @@
           <t>BBB Company</t>
         </is>
       </c>
-      <c r="E68" t="n">
-        <v>54990.75000000001</v>
-      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -1654,9 +1465,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E69" t="n">
-        <v>6407.42</v>
-      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -1673,9 +1481,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E70" t="n">
-        <v>550496.7000000001</v>
-      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -1692,9 +1497,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E71" t="n">
-        <v>173607.5</v>
-      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -1711,9 +1513,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E72" t="n">
-        <v>83068.48000000001</v>
-      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -1730,9 +1529,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E73" t="n">
-        <v>162354.24</v>
-      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -1749,9 +1545,6 @@
           <t>AAA Company</t>
         </is>
       </c>
-      <c r="E74" t="n">
-        <v>3776.22</v>
-      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -1767,6 +1560,9 @@
         <is>
           <t>BBB Company</t>
         </is>
+      </c>
+      <c r="E75" t="n">
+        <v>39.98</v>
       </c>
     </row>
   </sheetData>
